--- a/_03_part-two/film-details-and-ids.xlsx
+++ b/_03_part-two/film-details-and-ids.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15880" yWindow="0" windowWidth="9720" windowHeight="14520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Playing Now" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,13 +65,113 @@
   <si>
     <t>Horrible Bosses 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John Wick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TheEqualizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action Jackson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>St. Vincent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laggies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Pyramid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birdman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beyond the Light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suspense</t>
+  </si>
+  <si>
+    <t>Comedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sci Fi</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Drama</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Horror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hot Tub Time Machine 2</t>
+  </si>
+  <si>
+    <t>Fifty Shades Of Grey</t>
+  </si>
+  <si>
+    <t>Paddington</t>
+  </si>
+  <si>
+    <t>The DUFF</t>
+  </si>
+  <si>
+    <t>Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spongebob Squarepants 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,17 +222,10 @@
     </font>
     <font>
       <sz val="18"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
+      <sz val="16"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -153,7 +246,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -181,17 +274,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="35">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -205,6 +305,10 @@
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -218,6 +322,10 @@
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,7 +596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,181 +604,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C23"/>
+  <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="25">
+    <row r="2" spans="1:10" ht="25">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:10" ht="21">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="21">
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="21">
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21">
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" ht="21">
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="21">
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="21">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="21">
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="21">
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="21">
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21">
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="21">
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="21">
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="21">
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="21">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="21">
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="21">
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="21">
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="21">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="21">
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="21">
       <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="21">
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="21">
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="21">
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="21">
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="21">
+      <c r="A25" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="21">
+      <c r="A26" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
